--- a/biology/Botanique/Pinguicula_corsica/Pinguicula_corsica.xlsx
+++ b/biology/Botanique/Pinguicula_corsica/Pinguicula_corsica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grassette de Corse (Pinguicula corsica) est une plante carnivore vivace de la famille des Lentibulariaceae. Ses feuilles ovales vert tendre ou jaunâtres, collantes (couvertes de glandes mucilagineuses retenant les insectes) atteignent 5 à 10 cm et s'épanouissent en rosettes de la fin du printemps à l'automne. La floraison survient de juin à septembre : la hampe florale pubescente-glanduleuse ou glabre porte une fleur à corolle assez petite (10-12 mm) et éperon court (4-5 mm), de coloration variable : jaunâtre, rosée, parfois violette.
 </t>
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est strictement endémique de Corse où elle se rencontre communément dans des zones humides ensoleillées (berges des torrents, sources, pozzines) entre 1 100 et 2 000 mètres d'altitude (étage montagnard à alpin)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est strictement endémique de Corse où elle se rencontre communément dans des zones humides ensoleillées (berges des torrents, sources, pozzines) entre 1 100 et 2 000 mètres d'altitude (étage montagnard à alpin).
 </t>
         </is>
       </c>
